--- a/resources/entity-sample-data/2. statements.xlsx
+++ b/resources/entity-sample-data/2. statements.xlsx
@@ -25,7 +25,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Theme 1</t>
+    <t>theme-01</t>
   </si>
   <si>
     <t>Statement 1</t>
@@ -52,13 +52,13 @@
     <t>Description of statement 4</t>
   </si>
   <si>
+    <t>theme-02</t>
+  </si>
+  <si>
     <t>Statement 5</t>
   </si>
   <si>
     <t>Description of statement 5</t>
-  </si>
-  <si>
-    <t>Theme 2</t>
   </si>
   <si>
     <t>Statement 6</t>
@@ -123,7 +123,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -157,7 +157,7 @@
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -208,13 +208,43 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -223,25 +253,10 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
         <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="10"/>
@@ -300,25 +315,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1436,9 +1451,7 @@
       <c r="A2" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="5">
-        <v>5</v>
-      </c>
+      <c r="B2" s="5"/>
       <c r="C2" t="s" s="6">
         <v>5</v>
       </c>
@@ -1451,244 +1464,234 @@
       <c r="H2" s="8"/>
     </row>
     <row r="3" ht="32.05" customHeight="1">
-      <c r="A3" t="s" s="9">
+      <c r="A3" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="5">
+      <c r="B3" s="5"/>
+      <c r="C3" t="s" s="9">
         <v>7</v>
       </c>
-      <c r="C3" t="s" s="10">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s" s="11">
+      <c r="D3" t="s" s="10">
         <v>8</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" ht="32.05" customHeight="1">
-      <c r="A4" t="s" s="9">
+      <c r="A4" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="B4" t="s" s="6">
+      <c r="B4" s="6"/>
+      <c r="C4" t="s" s="10">
         <v>9</v>
       </c>
-      <c r="C4" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s" s="11">
+      <c r="D4" t="s" s="10">
         <v>10</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" ht="32.05" customHeight="1">
-      <c r="A5" t="s" s="9">
+      <c r="A5" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="6">
+      <c r="B5" s="6"/>
+      <c r="C5" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="C5" t="s" s="11">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s" s="11">
+      <c r="D5" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" ht="32.05" customHeight="1">
-      <c r="A6" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s" s="10">
+      <c r="A6" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="C6" t="s" s="11">
+      <c r="B6" s="9"/>
+      <c r="C6" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s" s="10">
+        <v>15</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="D6" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s" s="13">
+      <c r="B7" s="14"/>
+      <c r="C7" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="C7" t="s" s="11">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s" s="11">
+      <c r="D7" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
